--- a/excel/sablonlar/ayo_cost_excel.xlsx
+++ b/excel/sablonlar/ayo_cost_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30602C1-EBFD-4BEA-9D44-DFAEACDC1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69F25A6-1469-476B-A68A-F34E97949149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="1536" windowWidth="22584" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="creditcard" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="[$₺-41F]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +71,17 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,13 +96,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFCC6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,11 +128,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -139,17 +139,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -158,6 +155,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -434,97 +436,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -532,7 +534,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -544,96 +546,96 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -641,7 +643,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -653,96 +655,96 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -750,7 +752,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -762,96 +764,96 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="A14:D14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -859,7 +861,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -870,97 +872,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956858AB-E211-446E-B7C0-7AAE5DCD8156}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -968,7 +970,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
